--- a/biology/Zoologie/Dorvillea/Dorvillea.xlsx
+++ b/biology/Zoologie/Dorvillea/Dorvillea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorvillea est un genre d'annélides polychètes marins de la famille des Dorvilleidae (ordre des Eunicida).
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dorvillea a été créé en 1866 par le naturaliste anglais Edward Parfitt (1820-1893)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dorvillea a été créé en 1866 par le naturaliste anglais Edward Parfitt (1820-1893),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (10 août 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (10 août 2022) :
 Dorvillea angolana (Augener, 1918)
 Dorvillea atlantica (McIntosh, 1885)
 Dorvillea australiensis (McIntosh, 1885)
@@ -593,7 +609,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Edward Parfitt, « Description of a Nereis new to science », The Zoologist, vol. 1,‎ mars 1866, p. 113-114 (OCLC 1770671 et 173338280, lire en ligne)</t>
         </is>
